--- a/Lectures and Assignment 2/assignment2.xlsx
+++ b/Lectures and Assignment 2/assignment2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\springnuance\Desktop\Business-Analytics-I\Lectures and Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE0D60F-A781-4847-9AAD-9B2F254ECF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6634AA6B-13AE-45B0-8B8B-5F7D031668CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11304" yWindow="144" windowWidth="11964" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 2" sheetId="13" r:id="rId1"/>
@@ -19,30 +19,32 @@
     <definedName name="OpenSolver_ChosenSolver" localSheetId="0" hidden="1">CBC</definedName>
     <definedName name="OpenSolver_DualsNewSheet" localSheetId="0" hidden="1">0</definedName>
     <definedName name="OpenSolver_LinearityCheck" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 2'!$M$56:$W$68</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,0001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 2'!#REF!</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 2'!$M$56:$W$68</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 2'!$M$69:$W$69</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 2'!$X$56:$X$68</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,075"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 2'!$X$53</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">"binary"</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Problem 2'!$M$71:$W$71</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 2'!$Z$56:$Z$68</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -50,7 +52,7 @@
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
@@ -72,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>Table 1</t>
   </si>
@@ -172,12 +174,48 @@
   <si>
     <t>PI, CW</t>
   </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>JOB TYPE</t>
+  </si>
+  <si>
+    <t>The salary table</t>
+  </si>
+  <si>
+    <t>Decision variables</t>
+  </si>
+  <si>
+    <t>Salary of 1000000 for projects when the engineers don't have the skill to disallow this assignment</t>
+  </si>
+  <si>
+    <t>Optimal hiring costs</t>
+  </si>
+  <si>
+    <t>Constraint # Job assignment</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>Constraint # Engineer Assignment</t>
+  </si>
+  <si>
+    <t>Contraint # All decision variables must be binary</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,8 +247,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,8 +279,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -321,11 +395,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -375,6 +529,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,7 +605,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>180810</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4865619" cy="11432070"/>
+    <xdr:ext cx="4865619" cy="13148329"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -417,8 +621,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="178820" y="508470"/>
-              <a:ext cx="4865619" cy="11432070"/>
+              <a:off x="181165" y="509056"/>
+              <a:ext cx="4865619" cy="13148329"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1065,7 +1269,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -1121,8 +1325,10 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> the Linear Programming Model</a:t>
-              </a:r>
+                <a:t> the Binary Linear Programming Model</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-FI" sz="1400">
                 <a:effectLst/>
               </a:endParaRPr>
@@ -1158,14 +1364,8 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                <a:rPr lang="en-US" sz="1050">
+                  <a:effectLst/>
                 </a:rPr>
                 <a:t>Let </a:t>
               </a:r>
@@ -1179,7 +1379,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1192,7 +1392,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1206,7 +1406,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1217,6 +1417,55 @@
                 </m:oMath>
               </a14:m>
               <a:r>
+                <a:rPr lang="en-US" sz="1050">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>​ be a binary variable that equals 1 if job j is assigned to engineer </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1050" i="1">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1050">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> is assigned to job </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1050" i="1">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1050">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> and 0 otherwise.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-FI" sz="1400">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2. Objective Function</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -1226,20 +1475,13 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>​ be the number of cars transferred from area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>i</a:t>
-              </a:r>
+                <a:t>:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI" sz="1400">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -1250,32 +1492,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> to area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>, where </a:t>
-              </a:r>
+                <a:t>Minimize the total salary cost of assigning jobs</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -1287,272 +1528,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>i</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:sty m:val="p"/>
-                    </m:rPr>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>j</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>∈{</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐴</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐵</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>,</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐶</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>,</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐷</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>,</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐸</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>,</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝐹</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>}</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2. Objective Function</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Minimize the total travel time</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> of moving the cars between the neighborhood. The model assumes that all cars are move from area i to area j simultaneously.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <m:rPr>
-                      <m:sty m:val="p"/>
-                    </m:rPr>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1564,7 +1540,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1579,7 +1555,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1591,7 +1567,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -1608,7 +1584,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1624,7 +1600,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1636,7 +1612,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1648,7 +1624,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1665,7 +1641,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1678,11 +1654,11 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>𝑡</m:t>
+                            <m:t>𝑐𝑜𝑠𝑡</m:t>
                           </m:r>
                         </m:e>
                         <m:sub>
@@ -1692,7 +1668,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1706,7 +1682,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1720,7 +1696,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1733,7 +1709,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1747,7 +1723,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -1763,47 +1739,11 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑖</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≠</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑗</m:t>
+                    <m:t>,</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -1824,6 +1764,17 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -1834,19 +1785,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>where</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t>where </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -1858,7 +1797,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1871,11 +1810,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝑡</m:t>
+                        <m:t>𝑐𝑜𝑠𝑡</m:t>
                       </m:r>
                     </m:e>
                     <m:sub>
@@ -1885,7 +1824,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -1905,7 +1844,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> is the travel time from area </a:t>
+                <a:t>​ is the salary cost of engineer </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
@@ -1929,7 +1868,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> to area</a:t>
+                <a:t> working on job </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
@@ -1941,7 +1880,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> j</a:t>
+                <a:t>j</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -1953,456 +1892,53 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>, given in Table 2.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>3. Constraints</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>We can see the demand and the current number of cars are equal at 140. Therefore, the </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>d</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>emand constraints for each area</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> becomes</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
+                <a:t>. For infeasible assignments (i.e., the engineer doesn't have the skill for the job), set </a:t>
+              </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:nary>
-                    <m:naryPr>
-                      <m:chr m:val="∑"/>
-                      <m:limLoc m:val="subSup"/>
-                      <m:supHide m:val="on"/>
+                  <m:sSub>
+                    <m:sSubPr>
                       <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
                       </m:ctrlPr>
-                    </m:naryPr>
-                    <m:sub>
-                      <m:r>
-                        <m:rPr>
-                          <m:brk m:alnAt="9"/>
-                        </m:rPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup/>
+                    </m:sSubPr>
                     <m:e>
-                      <m:sSub>
-                        <m:sSubPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSubPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑥</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑖𝑗</m:t>
-                          </m:r>
-                        </m:sub>
-                      </m:sSub>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>−</m:t>
+                        <m:t>𝑐𝑜𝑠𝑡</m:t>
                       </m:r>
-                      <m:nary>
-                        <m:naryPr>
-                          <m:chr m:val="∑"/>
-                          <m:limLoc m:val="subSup"/>
-                          <m:supHide m:val="on"/>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:naryPr>
-                        <m:sub>
-                          <m:r>
-                            <m:rPr>
-                              <m:brk m:alnAt="9"/>
-                            </m:rPr>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>𝑗</m:t>
-                          </m:r>
-                        </m:sub>
-                        <m:sup/>
-                        <m:e>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑥</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑗𝑖</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>+</m:t>
-                          </m:r>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑐</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑗</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>=</m:t>
-                          </m:r>
-                          <m:sSub>
-                            <m:sSubPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑑</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑗</m:t>
-                              </m:r>
-                            </m:sub>
-                          </m:sSub>
-                        </m:e>
-                      </m:nary>
                     </m:e>
-                  </m:nary>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>, </m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑖</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≠</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑗</m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:nor/>
-                    </m:rPr>
-                    <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖𝑗</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
                 </m:oMath>
               </a14:m>
               <a:r>
@@ -2415,7 +1951,44 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> </a:t>
+                <a:t>​ to a very high value to effectively disallow that assignment.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3. Constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
               </a:r>
               <a:endParaRPr lang="en-FI" sz="1400">
                 <a:effectLst/>
@@ -2423,22 +1996,71 @@
             </a:p>
             <a:p>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>where:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Job Assignment</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Each job must be assigned to exactly one engineer with the required skills. For each job j:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:nary>
@@ -2522,6 +2144,18 @@
                       </m:sSub>
                     </m:e>
                   </m:nary>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=1</m:t>
+                  </m:r>
                 </m:oMath>
               </a14:m>
               <a:r>
@@ -2534,50 +2168,78 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>​ is the total number of cars transferred into area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> from all other areas. Since the number of cars increase for</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> this term due to nonnegativity constraint, it has a positive sign.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Engineer Assignment</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Each engineer can be assigned to at most one job. For each engineer </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:nary>
@@ -2607,7 +2269,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2655,14 +2317,14 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>𝑗𝑖</m:t>
+                            <m:t>𝑖𝑗</m:t>
                           </m:r>
                         </m:sub>
                       </m:sSub>
                     </m:e>
                   </m:nary>
                   <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -2671,7 +2333,7 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t> </m:t>
+                    <m:t>≤1</m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -2685,96 +2347,36 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>is the total number of cars transferred out of area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> to all other areas. Since the number of cars decrease for</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> this term due to nonnegativity constraint, it has a negative sign.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑑</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑗</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Skill Requirement</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -2785,279 +2387,8 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> is the demand for</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> cars in area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(Table 1), all are positive</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑐</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑗</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> is the current number of cars already in area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(Table 3), all are positive</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Intuition: the demand is equal to the current number of cars, plus the cars moving in and minus the cars moving out.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>4.</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> Integrality constraint </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>The number of cars to be transferred between areas must</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> be</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> a discrete quantity</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> since we</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> can't transfer a fraction of a car</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Integral</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> constraint:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
+                <a:t>: For each assignment </a:t>
+              </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSub>
@@ -3115,63 +2446,20 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> integer, for all </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑖</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>≠</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑗</m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:nor/>
-                    </m:rPr>
-                    <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
+                <a:t>​, ensure that engineer </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -3182,140 +2470,75 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t> has the skills required for job </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>. This is implicitly handled by setting the cost of infeasible assignments to a very high value.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Binary constraint </a:t>
               </a:r>
               <a:endParaRPr lang="en-FI" sz="1400">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>5. Non-negativity constraints</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>: </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑖𝑗</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>≥0</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>However, it would be problematic if we don't have the decision variables for </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
+              <a:pPr algn="ctr"/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSub>
@@ -3326,7 +2549,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3339,7 +2562,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3353,7 +2576,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3373,51 +2596,27 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> for all </a:t>
+                <a:t> binary, for all </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i, j</a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑖</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑗</m:t>
-                  </m:r>
                   <m:r>
                     <m:rPr>
                       <m:nor/>
                     </m:rPr>
-                    <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                    <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                       <a:solidFill>
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
@@ -3431,162 +2630,7 @@
                 </m:oMath>
               </a14:m>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>due to the SUMPRODUCT</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> function. Therefore, we add 6 decision variables and add the miscellaneous constraint as</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝑖𝑗</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=0</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> , for all </a:t>
-              </a:r>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑖</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>𝑗</m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:nor/>
-                    </m:rPr>
-                    <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t> </m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3598,7 +2642,7 @@
                 <a:t>  </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100">
+                <a:rPr lang="fi-FI" sz="1100" i="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -3609,24 +2653,7 @@
                 </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>The integer LP is implemented on the right. The reported solution is:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
+              <a:endParaRPr lang="en-FI" sz="1400" i="1">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
@@ -3642,20 +2669,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Task 2: Report the optimal total cost.</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -3677,9 +2690,323 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>The optimal cost is ... euros</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US">
+                <a:t>The integer LP is implemented on the right. The reported solution is:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI" sz="1400">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Job Assignments</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Eeva receives Job 4 (TA).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Emma receives Job 2 (CW).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Leo receives Job 11 (TA).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Elias receives Job 10 (PI).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sofia receives Job 7 (CW).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Onni receives Job 1 (CI).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Aada receives Job 3 (PA).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Ellen receives Job 5 (CI).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Saga receives Job 6 (PI).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Elliot receives Job 8 (TA).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Edvin receives Job 9 (CW).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Engineers Without Jobs</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Väinö</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Emil</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task 2: Report the optimal total cost.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal cost is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>344</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" b="1">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
@@ -3969,8 +3296,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="178820" y="508470"/>
-              <a:ext cx="4865619" cy="11432070"/>
+              <a:off x="181165" y="509056"/>
+              <a:ext cx="4865619" cy="13148329"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4617,7 +3944,7 @@
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1"/>
+                    <a:srgbClr val="FF0000"/>
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
@@ -4673,8 +4000,10 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> the Linear Programming Model</a:t>
-              </a:r>
+                <a:t> the Binary Linear Programming Model</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-FI" sz="1400">
                 <a:effectLst/>
               </a:endParaRPr>
@@ -4710,16 +4039,34 @@
             </a:p>
             <a:p>
               <a:r>
+                <a:rPr lang="en-US" sz="1050">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>Let </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Let </a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -4727,108 +4074,44 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝑖𝑗</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>​ be the number of cars transferred from area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                <a:rPr lang="en-US" sz="1050">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>​ be a binary variable that equals 1 if job j is assigned to engineer </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1050" i="1">
+                  <a:effectLst/>
                 </a:rPr>
                 <a:t>i</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> to area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                <a:rPr lang="en-US" sz="1050">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> is assigned to job </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1050" i="1">
+                  <a:effectLst/>
                 </a:rPr>
                 <a:t>j</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>, where </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>i, j∈{𝐴, 𝐵,𝐶,𝐷,𝐸,𝐹}</a:t>
-              </a:r>
+                <a:rPr lang="en-US" sz="1050">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> and 0 otherwise.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
               <a:endParaRPr lang="en-FI" sz="1400">
                 <a:effectLst/>
               </a:endParaRPr>
@@ -4873,36 +4156,178 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>Minimize the total travel time</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> of moving the cars between the neighborhood. The model assumes that all cars are move from area i to area j simultaneously.</a:t>
+                <a:t>Minimize the total salary cost of assigning jobs</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>min z= ∑2_(𝑖,𝑗)▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐𝑜𝑠𝑡</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗×𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗 〗,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
               </a:r>
               <a:endParaRPr lang="en-FI" sz="1400">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>where </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>min z= ∑2_(𝑖,𝑗)▒〖𝑡</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐𝑜𝑠𝑡</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -4910,11 +4335,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -4922,11 +4347,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗×𝑥</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -4938,7 +4363,67 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>_</a:t>
+                <a:t>​ is the salary cost of engineer </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> working on job </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>j</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>. For infeasible assignments (i.e., the engineer doesn't have the skill for the job), set </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -4946,11 +4431,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗 〗, 𝑖≠𝑗</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑐𝑜𝑠𝑡</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -4958,11 +4443,72 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>​ to a very high value to effectively disallow that assignment.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3. Constraints</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>:</a:t>
               </a:r>
               <a:endParaRPr lang="en-FI" sz="1400">
                 <a:effectLst/>
@@ -4970,6 +4516,84 @@
             </a:p>
             <a:p>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Job Assignment</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Each job must be assigned to exactly one engineer with the required skills. For each job j:</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑2_𝑖▒𝑥</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -4979,10 +4603,34 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>where</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -4993,6 +4641,76 @@
                 </a:rPr>
                 <a:t> </a:t>
               </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="1" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Engineer Assignment</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: Each engineer can be assigned to at most one job. For each engineer </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -5003,7 +4721,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑡</a:t>
+                <a:t>∑2_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>▒𝑥</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -5027,6 +4769,94 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>𝑖𝑗 ≤1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Skill Requirement</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>: For each assignment </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>𝑖𝑗</a:t>
               </a:r>
               <a:r>
@@ -5039,7 +4869,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> is the travel time from area </a:t>
+                <a:t>​, ensure that engineer </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
@@ -5063,7 +4893,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> to area</a:t>
+                <a:t> has the skills required for job </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
@@ -5075,7 +4905,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> j</a:t>
+                <a:t>j</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -5087,24 +4917,62 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>, given in Table 2.</a:t>
+                <a:t>. This is implicitly handled by setting the cost of infeasible assignments to a very high value.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4.</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> Binary constraint </a:t>
               </a:r>
               <a:endParaRPr lang="en-FI" sz="1400">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>3. Constraints</a:t>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -5112,40 +4980,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>We can see the demand and the current number of cars are equal at 140. Therefore, the </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>d</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖𝑗</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -5157,36 +5008,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>emand constraints for each area</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> becomes</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ∑2_𝑖▒〖𝑥</a:t>
+                <a:t> binary, for all </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>i, j</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
@@ -5194,54 +5028,6 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗−∑2_𝑗▒〖𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑗𝑖+𝑐_𝑗=𝑑_𝑗 〗〗, 𝑖≠𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -5261,7 +5047,19 @@
                 <a:t>"</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
+                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fi-FI" sz="1100" i="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -5272,906 +5070,7 @@
                 </a:rPr>
                 <a:t> </a:t>
               </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>where:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑2_𝑖▒𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>​ is the total number of cars transferred into area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> from all other areas. Since the number of cars increase for</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> this term due to nonnegativity constraint, it has a positive sign.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∑2_𝑗▒𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑗𝑖   </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>is the total number of cars transferred out of area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> to all other areas. Since the number of cars decrease for</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> this term due to nonnegativity constraint, it has a negative sign.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑_𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> is the demand for</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> cars in area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(Table 1), all are positive</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑐_𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> is the current number of cars already in area </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>j </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(Table 3), all are positive</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Intuition: the demand is equal to the current number of cars, plus the cars moving in and minus the cars moving out.</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>4.</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> Integrality constraint </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>The number of cars to be transferred between areas must</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> be</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> a discrete quantity</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> since we</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> can't transfer a fraction of a car</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Integral</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> constraint:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> integer, for all </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖≠𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="1" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>5. Non-negativity constraints</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>: </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗≥0</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>However, it would be problematic if we don't have the decision variables for </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> for all </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖=𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>due to the SUMPRODUCT</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> function. Therefore, we add 6 decision variables and add the miscellaneous constraint as</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖𝑗=0</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> , for all </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖=𝑗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="fi-FI" sz="1100">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
-                <a:effectLst/>
-              </a:endParaRPr>
-            </a:p>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>The integer LP is implemented on the right. The reported solution is:</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-FI" sz="1400">
+              <a:endParaRPr lang="en-FI" sz="1400" i="1">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
@@ -6187,20 +5086,6 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>Task 2: Report the optimal total cost.</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
               <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
@@ -6222,9 +5107,323 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>The optimal cost is ... euros</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US">
+                <a:t>The integer LP is implemented on the right. The reported solution is:</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-FI" sz="1400">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Job Assignments</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Eeva receives Job 4 (TA).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Emma receives Job 2 (CW).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Leo receives Job 11 (TA).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Elias receives Job 10 (PI).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Sofia receives Job 7 (CW).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Onni receives Job 1 (CI).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Aada receives Job 3 (PA).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Ellen receives Job 5 (CI).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Saga receives Job 6 (PI).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Elliot receives Job 8 (TA).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Edvin receives Job 9 (CW).</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>- Engineers Without Jobs</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Väinö</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Emil</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>Task 2: Report the optimal total cost.</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>The optimal cost is </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="1" i="0" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>344</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" b="1">
                 <a:effectLst/>
               </a:endParaRPr>
             </a:p>
@@ -8083,15 +7282,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W42"/>
+  <dimension ref="A1:Z73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="12" max="12" width="25.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="24" max="24" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
@@ -8337,7 +7541,7 @@
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H33" s="4"/>
       <c r="L33" s="10" t="s">
         <v>27</v>
@@ -8350,7 +7554,7 @@
       </c>
       <c r="O33" s="12"/>
     </row>
-    <row r="34" spans="8:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H34" s="4"/>
       <c r="L34" s="5" t="s">
         <v>28</v>
@@ -8363,33 +7567,1422 @@
       </c>
       <c r="O34" s="7"/>
     </row>
-    <row r="35" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H35" s="4"/>
+      <c r="M35" s="22"/>
     </row>
-    <row r="36" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H36" s="4"/>
+      <c r="L36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="N36" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
     </row>
-    <row r="37" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H37" s="4"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
     </row>
-    <row r="38" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H38" s="4"/>
+      <c r="L38" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="M38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O38" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P38" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T38" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="39" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H39" s="4"/>
+      <c r="L39" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="31">
+        <v>100000</v>
+      </c>
+      <c r="N39" s="31">
+        <v>32</v>
+      </c>
+      <c r="O39" s="31">
+        <v>100000</v>
+      </c>
+      <c r="P39" s="31">
+        <v>32</v>
+      </c>
+      <c r="Q39" s="31">
+        <v>100000</v>
+      </c>
+      <c r="R39" s="31">
+        <v>100000</v>
+      </c>
+      <c r="S39" s="31">
+        <v>32</v>
+      </c>
+      <c r="T39" s="31">
+        <v>32</v>
+      </c>
+      <c r="U39" s="31">
+        <v>32</v>
+      </c>
+      <c r="V39" s="31">
+        <v>100000</v>
+      </c>
+      <c r="W39" s="31">
+        <v>32</v>
+      </c>
     </row>
-    <row r="40" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H40" s="4"/>
+      <c r="L40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M40" s="31">
+        <v>100000</v>
+      </c>
+      <c r="N40" s="31">
+        <v>34</v>
+      </c>
+      <c r="O40" s="31">
+        <v>100000</v>
+      </c>
+      <c r="P40" s="31">
+        <v>100000</v>
+      </c>
+      <c r="Q40" s="31">
+        <v>100000</v>
+      </c>
+      <c r="R40" s="31">
+        <v>34</v>
+      </c>
+      <c r="S40" s="31">
+        <v>34</v>
+      </c>
+      <c r="T40" s="31">
+        <v>100000</v>
+      </c>
+      <c r="U40" s="31">
+        <v>34</v>
+      </c>
+      <c r="V40" s="31">
+        <v>34</v>
+      </c>
+      <c r="W40" s="31">
+        <v>100000</v>
+      </c>
     </row>
-    <row r="41" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H41" s="4"/>
+      <c r="L41" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="O41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P41" s="21">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="S41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="T41" s="21">
+        <v>31</v>
+      </c>
+      <c r="U41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="V41" s="21">
+        <v>100000</v>
+      </c>
+      <c r="W41" s="21">
+        <v>31</v>
+      </c>
     </row>
-    <row r="42" spans="8:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H42" s="4"/>
+      <c r="L42" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="O42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R42" s="21">
+        <v>31</v>
+      </c>
+      <c r="S42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="T42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U42" s="21">
+        <v>100000</v>
+      </c>
+      <c r="V42" s="21">
+        <v>31</v>
+      </c>
+      <c r="W42" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="43" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="L43" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N43" s="21">
+        <v>31</v>
+      </c>
+      <c r="O43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="S43" s="21">
+        <v>31</v>
+      </c>
+      <c r="T43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U43" s="21">
+        <v>31</v>
+      </c>
+      <c r="V43" s="21">
+        <v>100000</v>
+      </c>
+      <c r="W43" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="44" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="L44" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="O44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="S44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="T44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="V44" s="21">
+        <v>100000</v>
+      </c>
+      <c r="W44" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="45" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="L45" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="21">
+        <v>32</v>
+      </c>
+      <c r="N45" s="21">
+        <v>32</v>
+      </c>
+      <c r="O45" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P45" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q45" s="21">
+        <v>32</v>
+      </c>
+      <c r="R45" s="21">
+        <v>100000</v>
+      </c>
+      <c r="S45" s="21">
+        <v>32</v>
+      </c>
+      <c r="T45" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U45" s="21">
+        <v>32</v>
+      </c>
+      <c r="V45" s="21">
+        <v>100000</v>
+      </c>
+      <c r="W45" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="L46" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="O46" s="21">
+        <v>31</v>
+      </c>
+      <c r="P46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="S46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="T46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="V46" s="21">
+        <v>100000</v>
+      </c>
+      <c r="W46" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="L47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" s="21">
+        <v>32</v>
+      </c>
+      <c r="N47" s="21">
+        <v>32</v>
+      </c>
+      <c r="O47" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P47" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q47" s="21">
+        <v>32</v>
+      </c>
+      <c r="R47" s="21">
+        <v>100000</v>
+      </c>
+      <c r="S47" s="21">
+        <v>32</v>
+      </c>
+      <c r="T47" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U47" s="21">
+        <v>32</v>
+      </c>
+      <c r="V47" s="21">
+        <v>100000</v>
+      </c>
+      <c r="W47" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="48" spans="8:23" x14ac:dyDescent="0.3">
+      <c r="L48" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N48" s="21">
+        <v>100000</v>
+      </c>
+      <c r="O48" s="21">
+        <v>29</v>
+      </c>
+      <c r="P48" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q48" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R48" s="21">
+        <v>29</v>
+      </c>
+      <c r="S48" s="21">
+        <v>100000</v>
+      </c>
+      <c r="T48" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U48" s="21">
+        <v>100000</v>
+      </c>
+      <c r="V48" s="21">
+        <v>29</v>
+      </c>
+      <c r="W48" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="49" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L49" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="O49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="S49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="T49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="V49" s="21">
+        <v>100000</v>
+      </c>
+      <c r="W49" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L50" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M50" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N50" s="21">
+        <v>100000</v>
+      </c>
+      <c r="O50" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P50" s="21">
+        <v>29</v>
+      </c>
+      <c r="Q50" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R50" s="21">
+        <v>100000</v>
+      </c>
+      <c r="S50" s="21">
+        <v>100000</v>
+      </c>
+      <c r="T50" s="21">
+        <v>29</v>
+      </c>
+      <c r="U50" s="21">
+        <v>100000</v>
+      </c>
+      <c r="V50" s="21">
+        <v>100000</v>
+      </c>
+      <c r="W50" s="21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="12:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L51" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" s="21">
+        <v>100000</v>
+      </c>
+      <c r="N51" s="21">
+        <v>32</v>
+      </c>
+      <c r="O51" s="21">
+        <v>100000</v>
+      </c>
+      <c r="P51" s="21">
+        <v>100000</v>
+      </c>
+      <c r="Q51" s="21">
+        <v>100000</v>
+      </c>
+      <c r="R51" s="21">
+        <v>32</v>
+      </c>
+      <c r="S51" s="21">
+        <v>32</v>
+      </c>
+      <c r="T51" s="21">
+        <v>100000</v>
+      </c>
+      <c r="U51" s="21">
+        <v>32</v>
+      </c>
+      <c r="V51" s="21">
+        <v>32</v>
+      </c>
+      <c r="W51" s="21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="52" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L52" s="19"/>
+      <c r="R52" s="19"/>
+      <c r="S52" s="19"/>
+      <c r="T52" s="19"/>
+      <c r="X52" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="12:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L53" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R53" s="24"/>
+      <c r="X53" s="28" t="e">
+        <f>SUMPRODUCT(M39:W51,H77M56:W68)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="54" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L54" s="20"/>
+      <c r="M54" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="N54" s="32"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="32"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+    </row>
+    <row r="55" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="O55" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="P55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q55" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R55" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="S55" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="T55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U55" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="V55" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="W55" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="X55" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y55" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z55" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L56" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="M56" s="30">
+        <v>0</v>
+      </c>
+      <c r="N56" s="30">
+        <v>0</v>
+      </c>
+      <c r="O56" s="30">
+        <v>0</v>
+      </c>
+      <c r="P56" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="30">
+        <v>0</v>
+      </c>
+      <c r="R56" s="30">
+        <v>0</v>
+      </c>
+      <c r="S56" s="30">
+        <v>0</v>
+      </c>
+      <c r="T56" s="30">
+        <v>0</v>
+      </c>
+      <c r="U56" s="30">
+        <v>0</v>
+      </c>
+      <c r="V56" s="30">
+        <v>0</v>
+      </c>
+      <c r="W56" s="30">
+        <v>0</v>
+      </c>
+      <c r="X56" s="3">
+        <f>SUM(M56:W56)</f>
+        <v>1</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z56" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L57" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M57" s="30">
+        <v>0</v>
+      </c>
+      <c r="N57" s="30">
+        <v>1</v>
+      </c>
+      <c r="O57" s="30">
+        <v>0</v>
+      </c>
+      <c r="P57" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="30">
+        <v>0</v>
+      </c>
+      <c r="R57" s="30">
+        <v>0</v>
+      </c>
+      <c r="S57" s="30">
+        <v>0</v>
+      </c>
+      <c r="T57" s="30">
+        <v>0</v>
+      </c>
+      <c r="U57" s="30">
+        <v>0</v>
+      </c>
+      <c r="V57" s="30">
+        <v>0</v>
+      </c>
+      <c r="W57" s="30">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <f t="shared" ref="X57:X68" si="0">SUM(M57:W57)</f>
+        <v>1</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z57" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L58" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="M58" s="25">
+        <v>0</v>
+      </c>
+      <c r="N58" s="25">
+        <v>0</v>
+      </c>
+      <c r="O58" s="25">
+        <v>0</v>
+      </c>
+      <c r="P58" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="25">
+        <v>0</v>
+      </c>
+      <c r="R58" s="25">
+        <v>0</v>
+      </c>
+      <c r="S58" s="25">
+        <v>0</v>
+      </c>
+      <c r="T58" s="25">
+        <v>0</v>
+      </c>
+      <c r="U58" s="25">
+        <v>0</v>
+      </c>
+      <c r="V58" s="25">
+        <v>0</v>
+      </c>
+      <c r="W58" s="25">
+        <v>1</v>
+      </c>
+      <c r="X58" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z58" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L59" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" s="25">
+        <v>0</v>
+      </c>
+      <c r="N59" s="25">
+        <v>0</v>
+      </c>
+      <c r="O59" s="25">
+        <v>0</v>
+      </c>
+      <c r="P59" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="25">
+        <v>0</v>
+      </c>
+      <c r="R59" s="25">
+        <v>0</v>
+      </c>
+      <c r="S59" s="25">
+        <v>0</v>
+      </c>
+      <c r="T59" s="25">
+        <v>0</v>
+      </c>
+      <c r="U59" s="25">
+        <v>0</v>
+      </c>
+      <c r="V59" s="25">
+        <v>1</v>
+      </c>
+      <c r="W59" s="25">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z59" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L60" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M60" s="25">
+        <v>0</v>
+      </c>
+      <c r="N60" s="25">
+        <v>0</v>
+      </c>
+      <c r="O60" s="25">
+        <v>0</v>
+      </c>
+      <c r="P60" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="25">
+        <v>0</v>
+      </c>
+      <c r="R60" s="25">
+        <v>0</v>
+      </c>
+      <c r="S60" s="25">
+        <v>1</v>
+      </c>
+      <c r="T60" s="25">
+        <v>0</v>
+      </c>
+      <c r="U60" s="25">
+        <v>0</v>
+      </c>
+      <c r="V60" s="25">
+        <v>0</v>
+      </c>
+      <c r="W60" s="25">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z60" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L61" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="25">
+        <v>0</v>
+      </c>
+      <c r="N61" s="25">
+        <v>0</v>
+      </c>
+      <c r="O61" s="25">
+        <v>0</v>
+      </c>
+      <c r="P61" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="25">
+        <v>0</v>
+      </c>
+      <c r="R61" s="25">
+        <v>0</v>
+      </c>
+      <c r="S61" s="25">
+        <v>0</v>
+      </c>
+      <c r="T61" s="25">
+        <v>0</v>
+      </c>
+      <c r="U61" s="25">
+        <v>0</v>
+      </c>
+      <c r="V61" s="25">
+        <v>0</v>
+      </c>
+      <c r="W61" s="25">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z61" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L62" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="25">
+        <v>1</v>
+      </c>
+      <c r="N62" s="25">
+        <v>0</v>
+      </c>
+      <c r="O62" s="25">
+        <v>0</v>
+      </c>
+      <c r="P62" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="25">
+        <v>0</v>
+      </c>
+      <c r="R62" s="25">
+        <v>0</v>
+      </c>
+      <c r="S62" s="25">
+        <v>0</v>
+      </c>
+      <c r="T62" s="25">
+        <v>0</v>
+      </c>
+      <c r="U62" s="25">
+        <v>0</v>
+      </c>
+      <c r="V62" s="25">
+        <v>0</v>
+      </c>
+      <c r="W62" s="25">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z62" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L63" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="M63" s="25">
+        <v>0</v>
+      </c>
+      <c r="N63" s="25">
+        <v>0</v>
+      </c>
+      <c r="O63" s="25">
+        <v>1</v>
+      </c>
+      <c r="P63" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="25">
+        <v>0</v>
+      </c>
+      <c r="R63" s="25">
+        <v>0</v>
+      </c>
+      <c r="S63" s="25">
+        <v>0</v>
+      </c>
+      <c r="T63" s="25">
+        <v>0</v>
+      </c>
+      <c r="U63" s="25">
+        <v>0</v>
+      </c>
+      <c r="V63" s="25">
+        <v>0</v>
+      </c>
+      <c r="W63" s="25">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y63" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z63" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L64" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" s="25">
+        <v>0</v>
+      </c>
+      <c r="N64" s="25">
+        <v>0</v>
+      </c>
+      <c r="O64" s="25">
+        <v>0</v>
+      </c>
+      <c r="P64" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="25">
+        <v>1</v>
+      </c>
+      <c r="R64" s="25">
+        <v>0</v>
+      </c>
+      <c r="S64" s="25">
+        <v>0</v>
+      </c>
+      <c r="T64" s="25">
+        <v>0</v>
+      </c>
+      <c r="U64" s="25">
+        <v>0</v>
+      </c>
+      <c r="V64" s="25">
+        <v>0</v>
+      </c>
+      <c r="W64" s="25">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z64" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L65" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65" s="25">
+        <v>0</v>
+      </c>
+      <c r="N65" s="25">
+        <v>0</v>
+      </c>
+      <c r="O65" s="25">
+        <v>0</v>
+      </c>
+      <c r="P65" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="25">
+        <v>0</v>
+      </c>
+      <c r="R65" s="25">
+        <v>1</v>
+      </c>
+      <c r="S65" s="25">
+        <v>0</v>
+      </c>
+      <c r="T65" s="25">
+        <v>0</v>
+      </c>
+      <c r="U65" s="25">
+        <v>0</v>
+      </c>
+      <c r="V65" s="25">
+        <v>0</v>
+      </c>
+      <c r="W65" s="25">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y65" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z65" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L66" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M66" s="25">
+        <v>0</v>
+      </c>
+      <c r="N66" s="25">
+        <v>0</v>
+      </c>
+      <c r="O66" s="25">
+        <v>0</v>
+      </c>
+      <c r="P66" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="25">
+        <v>0</v>
+      </c>
+      <c r="R66" s="25">
+        <v>0</v>
+      </c>
+      <c r="S66" s="25">
+        <v>0</v>
+      </c>
+      <c r="T66" s="25">
+        <v>0</v>
+      </c>
+      <c r="U66" s="25">
+        <v>0</v>
+      </c>
+      <c r="V66" s="25">
+        <v>0</v>
+      </c>
+      <c r="W66" s="25">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z66" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L67" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M67" s="25">
+        <v>0</v>
+      </c>
+      <c r="N67" s="25">
+        <v>0</v>
+      </c>
+      <c r="O67" s="25">
+        <v>0</v>
+      </c>
+      <c r="P67" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="25">
+        <v>0</v>
+      </c>
+      <c r="R67" s="25">
+        <v>0</v>
+      </c>
+      <c r="S67" s="25">
+        <v>0</v>
+      </c>
+      <c r="T67" s="25">
+        <v>1</v>
+      </c>
+      <c r="U67" s="25">
+        <v>0</v>
+      </c>
+      <c r="V67" s="25">
+        <v>0</v>
+      </c>
+      <c r="W67" s="25">
+        <v>0</v>
+      </c>
+      <c r="X67" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z67" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L68" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" s="25">
+        <v>0</v>
+      </c>
+      <c r="N68" s="25">
+        <v>0</v>
+      </c>
+      <c r="O68" s="25">
+        <v>0</v>
+      </c>
+      <c r="P68" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="25">
+        <v>0</v>
+      </c>
+      <c r="R68" s="25">
+        <v>0</v>
+      </c>
+      <c r="S68" s="25">
+        <v>0</v>
+      </c>
+      <c r="T68" s="25">
+        <v>0</v>
+      </c>
+      <c r="U68" s="25">
+        <v>1</v>
+      </c>
+      <c r="V68" s="25">
+        <v>0</v>
+      </c>
+      <c r="W68" s="25">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y68" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z68" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L69" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M69" s="19">
+        <f>SUM(M56:M68)</f>
+        <v>1</v>
+      </c>
+      <c r="N69" s="19">
+        <f t="shared" ref="N69:W69" si="1">SUM(N56:N68)</f>
+        <v>1</v>
+      </c>
+      <c r="O69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W69" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="N70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="O70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="P70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="R70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="S70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="T70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="U70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="V70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="W70" s="33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="M71" s="34">
+        <v>1</v>
+      </c>
+      <c r="N71" s="34">
+        <v>1</v>
+      </c>
+      <c r="O71" s="34">
+        <v>1</v>
+      </c>
+      <c r="P71" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="34">
+        <v>1</v>
+      </c>
+      <c r="R71" s="35">
+        <v>1</v>
+      </c>
+      <c r="S71" s="35">
+        <v>1</v>
+      </c>
+      <c r="T71" s="34">
+        <v>1</v>
+      </c>
+      <c r="U71" s="34">
+        <v>1</v>
+      </c>
+      <c r="V71" s="34">
+        <v>1</v>
+      </c>
+      <c r="W71" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="R72" s="19"/>
+      <c r="S72" s="19"/>
+    </row>
+    <row r="73" spans="12:26" x14ac:dyDescent="0.3">
+      <c r="L73" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M73" s="36"/>
+      <c r="N73" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="N21:O21"/>
+    <mergeCell ref="M37:W37"/>
+    <mergeCell ref="M54:W54"/>
+    <mergeCell ref="L73:N73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
